--- a/data/trans_dic/P33b_R5-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,66</t>
+          <t>5,46; 9,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 11,48</t>
+          <t>6,81; 11,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,81</t>
+          <t>6,67; 10,01</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,98</t>
+          <t>4,84; 9,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,94</t>
+          <t>5,32; 9,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,72</t>
+          <t>5,27; 8,28</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 8,97</t>
+          <t>1,87; 9,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 19,09</t>
+          <t>11,03; 19,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 10,59</t>
+          <t>3,07; 10,69</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,67</t>
+          <t>6,33; 9,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,63</t>
+          <t>3,78; 9,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,82</t>
+          <t>5,26; 8,9</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,86</t>
+          <t>4,09; 7,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 19,26</t>
+          <t>11,82; 18,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,25</t>
+          <t>10,18; 14,32</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,38</t>
+          <t>0,88; 10,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,16; 18,33</t>
+          <t>14,05; 18,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,3; 15,14</t>
+          <t>11,16; 14,67</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 7,44</t>
+          <t>5,0; 7,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,06</t>
+          <t>9,67; 13,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,91; 10,02</t>
+          <t>8,02; 10,01</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que toma algún remedio para dormir (no medicamentos)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37492</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40419</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>77910</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27594; 49617</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30473; 50815</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>63546; 95369</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30475</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26411</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56886</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21910; 41089</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20323; 35593</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43989; 69047</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35027</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25056</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60084</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12474; 60113</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18405; 32799</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25656; 89282</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>79341</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70518</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>149860</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>65521; 101208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36963; 95918</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>105756; 179186</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27255</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>134938</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>162192</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19363; 37105</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>99138; 159313</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>133623; 187913</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6931</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>123396</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>130327</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2110; 25542</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>106958; 138450</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>111781; 146941</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>216521</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>420737</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>637258</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>168790; 247555</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>345754; 465698</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>557168; 695385</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>